--- a/Symphony/2021/Others/Document/Final/Stock for Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Document/Final/Stock for Mugdho Corporation.xlsx
@@ -19,17 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
   <si>
-    <t>Komola Super Market, Alaipur, Natore</t>
-  </si>
-  <si>
-    <t>Date: 25-05-2021</t>
-  </si>
-  <si>
     <t>S.N</t>
   </si>
   <si>
@@ -51,9 +45,6 @@
     <t>B67</t>
   </si>
   <si>
-    <t>B68</t>
-  </si>
-  <si>
     <t>BL120</t>
   </si>
   <si>
@@ -72,9 +63,6 @@
     <t>D82</t>
   </si>
   <si>
-    <t>i67</t>
-  </si>
-  <si>
     <t>L135</t>
   </si>
   <si>
@@ -102,9 +90,6 @@
     <t>v99+</t>
   </si>
   <si>
-    <t>P9_2GB</t>
-  </si>
-  <si>
     <t>Z30</t>
   </si>
   <si>
@@ -114,9 +99,6 @@
     <t>Z32</t>
   </si>
   <si>
-    <t>Z35</t>
-  </si>
-  <si>
     <t>z40</t>
   </si>
   <si>
@@ -127,15 +109,40 @@
   </si>
   <si>
     <t>Total=</t>
+  </si>
+  <si>
+    <t>Date: 30-06-2021</t>
+  </si>
+  <si>
+    <t>Z12</t>
+  </si>
+  <si>
+    <t>Z18</t>
+  </si>
+  <si>
+    <t>Atom</t>
+  </si>
+  <si>
+    <t>Atom2</t>
+  </si>
+  <si>
+    <t>Z35/32</t>
+  </si>
+  <si>
+    <t>Z35/64</t>
+  </si>
+  <si>
+    <t>Distributor of Symphony Mobile (Edison Group)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -210,7 +217,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -259,12 +266,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -275,41 +308,50 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -592,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,47 +650,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="A2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="A3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
@@ -656,17 +698,17 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4">
-        <v>175</v>
-      </c>
-      <c r="D5" s="5">
-        <v>896.24</v>
-      </c>
-      <c r="E5" s="6">
+        <v>33</v>
+      </c>
+      <c r="C5" s="15">
+        <v>45</v>
+      </c>
+      <c r="D5" s="6">
+        <v>7244.2071428571426</v>
+      </c>
+      <c r="E5" s="5">
         <f>C5*D5</f>
-        <v>156842</v>
+        <v>325989.32142857142</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
@@ -674,482 +716,518 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4">
-        <v>148</v>
-      </c>
-      <c r="D6" s="5">
-        <v>916.29</v>
-      </c>
-      <c r="E6" s="6">
-        <f>C6*D6</f>
-        <v>135610.91999999998</v>
+        <v>34</v>
+      </c>
+      <c r="C6" s="16">
+        <v>106</v>
+      </c>
+      <c r="D6" s="6">
+        <v>7056.7619047619046</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" ref="E6:E33" si="0">C6*D6</f>
+        <v>748016.76190476189</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="4">
-        <v>180</v>
-      </c>
-      <c r="D7" s="5">
-        <v>916.29</v>
-      </c>
-      <c r="E7" s="6">
-        <f>C7*D7</f>
-        <v>164932.19999999998</v>
+        <v>6</v>
+      </c>
+      <c r="C7" s="15">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1032.575</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>1032.575</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="4">
-        <v>259</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1032.58</v>
-      </c>
-      <c r="E8" s="6">
-        <f>C8*D8</f>
-        <v>267438.21999999997</v>
+        <v>7</v>
+      </c>
+      <c r="C8" s="15">
+        <v>230</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1032.575</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>237492.25</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4">
-        <v>242</v>
-      </c>
-      <c r="D9" s="5">
-        <v>969.42</v>
-      </c>
-      <c r="E9" s="6">
-        <f>C9*D9</f>
-        <v>234599.63999999998</v>
+        <v>8</v>
+      </c>
+      <c r="C9" s="15">
+        <v>30</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1032.58</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="0"/>
+        <v>30977.399999999998</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="4">
-        <v>88</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1178.8</v>
-      </c>
-      <c r="E10" s="6">
-        <f>C10*D10</f>
-        <v>103734.39999999999</v>
+        <v>9</v>
+      </c>
+      <c r="C10" s="15">
+        <v>332</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1130.82</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="0"/>
+        <v>375432.24</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="4">
-        <v>109</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1120.8</v>
-      </c>
-      <c r="E11" s="6">
-        <f>C11*D11</f>
-        <v>122167.2</v>
+        <v>27</v>
+      </c>
+      <c r="C11" s="15">
+        <v>380</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1178.8</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="0"/>
+        <v>447944</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="4">
-        <v>68</v>
-      </c>
-      <c r="D12" s="5">
-        <v>1422.38</v>
-      </c>
-      <c r="E12" s="6">
-        <f>C12*D12</f>
-        <v>96721.840000000011</v>
+      <c r="C12" s="15">
+        <v>825</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1120.8</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="0"/>
+        <v>924660</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="4">
-        <v>31</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1101.42</v>
-      </c>
-      <c r="E13" s="6">
-        <f>C13*D13</f>
-        <v>34144.020000000004</v>
+      <c r="C13" s="15">
+        <v>471</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1422.38</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="0"/>
+        <v>669940.9800000001</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="4">
-        <v>34</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1066.6600000000001</v>
-      </c>
-      <c r="E14" s="6">
-        <f>C14*D14</f>
-        <v>36266.44</v>
+        <v>12</v>
+      </c>
+      <c r="C14" s="15">
+        <v>160</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1101.42</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="0"/>
+        <v>176227.20000000001</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="4">
-        <v>6</v>
-      </c>
-      <c r="D15" s="5">
-        <v>5427.89</v>
-      </c>
-      <c r="E15" s="6">
-        <f>C15*D15</f>
-        <v>32567.340000000004</v>
+        <v>13</v>
+      </c>
+      <c r="C15" s="15">
+        <v>347</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1066.6600000000001</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="0"/>
+        <v>370131.02</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="4">
-        <v>86</v>
-      </c>
-      <c r="D16" s="5">
+        <v>14</v>
+      </c>
+      <c r="C16" s="15">
+        <v>490</v>
+      </c>
+      <c r="D16" s="4">
         <v>1246.96</v>
       </c>
-      <c r="E16" s="6">
-        <f>C16*D16</f>
-        <v>107238.56</v>
+      <c r="E16" s="5">
+        <f t="shared" si="0"/>
+        <v>611010.4</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="4">
-        <v>125</v>
-      </c>
-      <c r="D17" s="5">
+        <v>15</v>
+      </c>
+      <c r="C17" s="15">
+        <v>419</v>
+      </c>
+      <c r="D17" s="4">
         <v>1306.26</v>
       </c>
-      <c r="E17" s="6">
-        <f>C17*D17</f>
-        <v>163282.5</v>
+      <c r="E17" s="5">
+        <f t="shared" si="0"/>
+        <v>547322.93999999994</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="4">
-        <v>57</v>
-      </c>
-      <c r="D18" s="8">
+        <v>16</v>
+      </c>
+      <c r="C18" s="15">
+        <v>258</v>
+      </c>
+      <c r="D18" s="7">
         <v>1364.45</v>
       </c>
-      <c r="E18" s="6">
-        <f>C18*D18</f>
-        <v>77773.650000000009</v>
+      <c r="E18" s="5">
+        <f t="shared" si="0"/>
+        <v>352028.10000000003</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="4">
-        <v>64</v>
-      </c>
-      <c r="D19" s="8">
+        <v>17</v>
+      </c>
+      <c r="C19" s="15">
+        <v>136</v>
+      </c>
+      <c r="D19" s="7">
         <v>1403.33</v>
       </c>
-      <c r="E19" s="6">
-        <f>C19*D19</f>
-        <v>89813.119999999995</v>
+      <c r="E19" s="5">
+        <f t="shared" si="0"/>
+        <v>190852.88</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="4">
-        <v>65</v>
-      </c>
-      <c r="D20" s="8">
+        <v>18</v>
+      </c>
+      <c r="C20" s="15">
+        <v>246</v>
+      </c>
+      <c r="D20" s="7">
         <v>1178.94</v>
       </c>
-      <c r="E20" s="6">
-        <f>C20*D20</f>
-        <v>76631.100000000006</v>
+      <c r="E20" s="5">
+        <f t="shared" si="0"/>
+        <v>290019.24</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="4">
-        <v>115</v>
-      </c>
-      <c r="D21" s="5">
+        <v>19</v>
+      </c>
+      <c r="C21" s="15">
+        <v>697</v>
+      </c>
+      <c r="D21" s="4">
         <v>1188.82</v>
       </c>
-      <c r="E21" s="6">
-        <f>C21*D21</f>
-        <v>136714.29999999999</v>
+      <c r="E21" s="5">
+        <f t="shared" si="0"/>
+        <v>828607.53999999992</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="4">
-        <v>19</v>
-      </c>
-      <c r="D22" s="7">
+        <v>20</v>
+      </c>
+      <c r="C22" s="15">
+        <v>12</v>
+      </c>
+      <c r="D22" s="6">
         <v>1150.8699999999999</v>
       </c>
-      <c r="E22" s="6">
-        <f>C22*D22</f>
-        <v>21866.53</v>
+      <c r="E22" s="5">
+        <f t="shared" si="0"/>
+        <v>13810.439999999999</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="4">
-        <v>1</v>
-      </c>
-      <c r="D23" s="5">
-        <v>10590</v>
-      </c>
-      <c r="E23" s="6">
-        <f>C23*D23</f>
-        <v>10590</v>
+        <v>21</v>
+      </c>
+      <c r="C23" s="15">
+        <v>146</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1208.0999999999999</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="0"/>
+        <v>176382.59999999998</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="4">
-        <v>38</v>
-      </c>
-      <c r="D24" s="5">
-        <v>1208.0999999999999</v>
-      </c>
-      <c r="E24" s="6">
-        <f>C24*D24</f>
-        <v>45907.799999999996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="C24" s="15">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4">
+        <v>3548.43</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="0"/>
+        <v>3548.43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="4">
-        <v>1</v>
-      </c>
-      <c r="D25" s="5">
-        <v>3548.43</v>
-      </c>
-      <c r="E25" s="6">
-        <f>C25*D25</f>
-        <v>3548.43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="C25" s="16">
+        <v>32</v>
+      </c>
+      <c r="D25" s="6">
+        <v>7165.87</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="0"/>
+        <v>229307.84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>26</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="4">
-        <v>10</v>
-      </c>
-      <c r="D26" s="5">
-        <v>9066.5400000000009</v>
-      </c>
-      <c r="E26" s="6">
-        <f>C26*D26</f>
-        <v>90665.400000000009</v>
+        <v>33</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="18">
+        <v>71</v>
+      </c>
+      <c r="D26" s="4">
+        <v>7242.2</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="0"/>
+        <v>514196.2</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="4">
-        <v>16</v>
-      </c>
-      <c r="D27" s="5">
-        <v>9873.4500000000007</v>
-      </c>
-      <c r="E27" s="6">
-        <f>C27*D27</f>
-        <v>157975.20000000001</v>
+        <v>23</v>
+      </c>
+      <c r="C27" s="16">
+        <v>18</v>
+      </c>
+      <c r="D27" s="6">
+        <v>9066.5400000000009</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" si="0"/>
+        <v>163197.72000000003</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="4">
-        <v>28</v>
-      </c>
-      <c r="D28" s="7">
-        <v>7778.48</v>
-      </c>
-      <c r="E28" s="6">
-        <f>C28*D28</f>
-        <v>217797.44</v>
+        <v>24</v>
+      </c>
+      <c r="C28" s="15">
+        <v>26</v>
+      </c>
+      <c r="D28" s="4">
+        <v>9873.4500000000007</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="0"/>
+        <v>256709.7</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="4">
-        <v>19</v>
-      </c>
-      <c r="D29" s="5">
-        <v>9056.51</v>
-      </c>
-      <c r="E29" s="6">
-        <f>C29*D29</f>
-        <v>172073.69</v>
+        <v>25</v>
+      </c>
+      <c r="C29" s="15">
+        <v>153</v>
+      </c>
+      <c r="D29" s="4">
+        <v>7778.48</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" si="0"/>
+        <v>1190107.44</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="4">
-        <v>16</v>
-      </c>
-      <c r="D30" s="7">
+        <v>35</v>
+      </c>
+      <c r="C30" s="15">
+        <v>23</v>
+      </c>
+      <c r="D30" s="6">
         <v>9056.51</v>
       </c>
-      <c r="E30" s="6">
-        <f>C30*D30</f>
-        <v>144904.16</v>
+      <c r="E30" s="5">
+        <f t="shared" si="0"/>
+        <v>208299.73</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="4">
+        <v>36</v>
+      </c>
+      <c r="C31" s="16">
+        <v>23</v>
+      </c>
+      <c r="D31" s="6">
+        <v>9973.69</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" si="0"/>
+        <v>229394.87000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>40</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="15">
+        <v>30</v>
+      </c>
+      <c r="D32" s="4">
+        <v>9056.51</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="0"/>
+        <v>271695.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>41</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="15">
         <v>1</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D33" s="6">
         <v>12826.99</v>
       </c>
-      <c r="E31" s="6">
-        <f>C31*D31</f>
+      <c r="E33" s="5">
+        <f t="shared" si="0"/>
         <v>12826.99</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="9">
-        <f>SUM(C5:C31)</f>
-        <v>2001</v>
-      </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10">
-        <f>SUM(E5:E31)</f>
-        <v>2914633.0900000003</v>
+    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="8">
+        <f>SUM(C5:C33)</f>
+        <v>5709</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9">
+        <f>SUM(E5:E33)</f>
+        <v>10397162.108333332</v>
       </c>
     </row>
   </sheetData>
@@ -1160,7 +1238,7 @@
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A34:B34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
